--- a/COVID/COVID.xlsx
+++ b/COVID/COVID.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ncraig/Desktop/Lecture/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09951A67-829A-1648-8C87-FCF9A508D092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,27 +66,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,703 +391,513 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>43852</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B2">
         <v>555</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="n">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>43853</v>
       </c>
-      <c r="C3" t="n">
+      <c r="B3">
         <v>653</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="n">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>43854</v>
       </c>
-      <c r="C4" t="n">
+      <c r="B4">
         <v>941</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="n">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>43855</v>
       </c>
-      <c r="C5" t="n">
+      <c r="B5">
         <v>1434</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="n">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>43856</v>
       </c>
-      <c r="C6" t="n">
+      <c r="B6">
         <v>2118</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="n">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>43857</v>
       </c>
-      <c r="C7" t="n">
+      <c r="B7">
         <v>2927</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="n">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>43858</v>
       </c>
-      <c r="C8" t="n">
+      <c r="B8">
         <v>5578</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="n">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>43859</v>
       </c>
-      <c r="C9" t="n">
+      <c r="B9">
         <v>6166</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="n">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>43860</v>
       </c>
-      <c r="C10" t="n">
+      <c r="B10">
         <v>8234</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="n">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>43861</v>
       </c>
-      <c r="C11" t="n">
+      <c r="B11">
         <v>9927</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="n">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <v>43862</v>
       </c>
-      <c r="C12" t="n">
+      <c r="B12">
         <v>12038</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="n">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>43863</v>
+      </c>
+      <c r="B13">
+        <v>16787</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B14">
+        <v>19881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B15">
+        <v>23892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B16">
+        <v>27635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B17">
+        <v>30817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B18">
+        <v>34391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>43869</v>
+      </c>
+      <c r="B19">
+        <v>37120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>43870</v>
+      </c>
+      <c r="B20">
+        <v>40150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>43871</v>
       </c>
-      <c r="C13" t="n">
+      <c r="B21">
         <v>42762</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="n">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>43872</v>
       </c>
-      <c r="C14" t="n">
+      <c r="B22">
         <v>44802</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="n">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>43873</v>
       </c>
-      <c r="C15" t="n">
+      <c r="B23">
         <v>45221</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="n">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>43874</v>
       </c>
-      <c r="C16" t="n">
+      <c r="B24">
         <v>60368</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="n">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>43875</v>
       </c>
-      <c r="C17" t="n">
+      <c r="B25">
         <v>66885</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="n">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>43876</v>
       </c>
-      <c r="C18" t="n">
+      <c r="B26">
         <v>69030</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="n">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>43877</v>
       </c>
-      <c r="C19" t="n">
+      <c r="B27">
         <v>71224</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="n">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>43878</v>
       </c>
-      <c r="C20" t="n">
+      <c r="B28">
         <v>73258</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="n">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>43879</v>
       </c>
-      <c r="C21" t="n">
+      <c r="B29">
         <v>75136</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="n">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>43880</v>
       </c>
-      <c r="C22" t="n">
+      <c r="B30">
         <v>75639</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="n">
-        <v>43863</v>
-      </c>
-      <c r="C23" t="n">
-        <v>16787</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="n">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>43881</v>
       </c>
-      <c r="C24" t="n">
+      <c r="B31">
         <v>76197</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="n">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>43882</v>
       </c>
-      <c r="C25" t="n">
+      <c r="B32">
         <v>76823</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="n">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>43883</v>
       </c>
-      <c r="C26" t="n">
+      <c r="B33">
         <v>78579</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="n">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>43884</v>
       </c>
-      <c r="C27" t="n">
+      <c r="B34">
         <v>78965</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="n">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>43885</v>
       </c>
-      <c r="C28" t="n">
+      <c r="B35">
         <v>79568</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="n">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>43886</v>
       </c>
-      <c r="C29" t="n">
+      <c r="B36">
         <v>80413</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="n">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>43887</v>
       </c>
-      <c r="C30" t="n">
+      <c r="B37">
         <v>81395</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="n">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>43888</v>
       </c>
-      <c r="C31" t="n">
+      <c r="B38">
         <v>82754</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="n">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>43889</v>
       </c>
-      <c r="C32" t="n">
+      <c r="B39">
         <v>84120</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="n">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>43890</v>
       </c>
-      <c r="C33" t="n">
+      <c r="B40">
         <v>86011</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="n">
-        <v>43864</v>
-      </c>
-      <c r="C34" t="n">
-        <v>19881</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="n">
-        <v>43865</v>
-      </c>
-      <c r="C35" t="n">
-        <v>23892</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>43866</v>
-      </c>
-      <c r="C36" t="n">
-        <v>27635</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>43867</v>
-      </c>
-      <c r="C37" t="n">
-        <v>30817</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>43868</v>
-      </c>
-      <c r="C38" t="n">
-        <v>34391</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>43869</v>
-      </c>
-      <c r="C39" t="n">
-        <v>37120</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>43870</v>
-      </c>
-      <c r="C40" t="n">
-        <v>40150</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="n">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>43891</v>
       </c>
-      <c r="C41" t="n">
+      <c r="B41">
         <v>88369</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="n">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B42">
+        <v>90306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B43">
+        <v>92840</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B44">
+        <v>95120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B45">
+        <v>97882</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B46">
+        <v>101784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>43897</v>
+      </c>
+      <c r="B47">
+        <v>105821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>43898</v>
+      </c>
+      <c r="B48">
+        <v>109795</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43899</v>
+      </c>
+      <c r="B49">
+        <v>113561</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>43900</v>
       </c>
-      <c r="C42" t="n">
+      <c r="B50">
         <v>118592</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="n">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>43901</v>
       </c>
-      <c r="C43" t="n">
+      <c r="B51">
         <v>125865</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="n">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
         <v>43902</v>
       </c>
-      <c r="C44" t="n">
+      <c r="B52">
         <v>128343</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="n">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>43903</v>
       </c>
-      <c r="C45" t="n">
+      <c r="B53">
         <v>145193</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="n">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>43904</v>
       </c>
-      <c r="C46" t="n">
+      <c r="B54">
         <v>156094</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="n">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>43905</v>
       </c>
-      <c r="C47" t="n">
+      <c r="B55">
         <v>167446</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="n">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
         <v>43906</v>
       </c>
-      <c r="C48" t="n">
+      <c r="B56">
         <v>181527</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="n">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>43907</v>
       </c>
-      <c r="C49" t="n">
+      <c r="B57">
         <v>197142</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="n">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>43908</v>
       </c>
-      <c r="C50" t="n">
+      <c r="B58">
         <v>214910</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="n">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
         <v>43909</v>
       </c>
-      <c r="C51" t="n">
+      <c r="B59">
         <v>242708</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>43892</v>
-      </c>
-      <c r="C52" t="n">
-        <v>90306</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="n">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
         <v>43910</v>
       </c>
-      <c r="C53" t="n">
+      <c r="B60">
         <v>272166</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="n">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
         <v>43911</v>
       </c>
-      <c r="C54" t="n">
+      <c r="B61">
         <v>304524</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="n">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
         <v>43912</v>
       </c>
-      <c r="C55" t="n">
+      <c r="B62">
         <v>335957</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>43893</v>
-      </c>
-      <c r="C56" t="n">
-        <v>92840</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>43894</v>
-      </c>
-      <c r="C57" t="n">
-        <v>95120</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>43895</v>
-      </c>
-      <c r="C58" t="n">
-        <v>97882</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>43896</v>
-      </c>
-      <c r="C59" t="n">
-        <v>101784</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>43897</v>
-      </c>
-      <c r="C60" t="n">
-        <v>105821</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>43898</v>
-      </c>
-      <c r="C61" t="n">
-        <v>109795</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>43899</v>
-      </c>
-      <c r="C62" t="n">
-        <v>113561</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/COVID/COVID.xlsx
+++ b/COVID/COVID.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ncraig/Desktop/Lecture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09951A67-829A-1648-8C87-FCF9A508D092}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB13BCC-6D74-5746-ADC6-44D51BB2FC7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
